--- a/109下/109下 Excel/Excel 第三次上課/上課/Ch05-01.xlsx
+++ b/109下/109下 Excel/Excel 第三次上課/上課/Ch05-01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Downloads\00 國立空中大學\109下\109下 Excel\Excel 第三次上課\上課\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Documents\GitHub\NationalOpenUniversity\109下\109下 Excel\Excel 第三次上課\上課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE4021C-8ED3-4D69-8674-C08C791C62B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F1E16D-DCD5-4385-A556-843A15C64787}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2856" yWindow="3564" windowWidth="19404" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8916" yWindow="3600" windowWidth="15588" windowHeight="13524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="直線法" sheetId="2" r:id="rId1"/>
@@ -238,14 +238,14 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -602,13 +602,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -640,6 +640,10 @@
       <c r="D4">
         <v>15</v>
       </c>
+      <c r="E4" s="6">
+        <f>SLN(B4,C4,D4)</f>
+        <v>1133333.3333333333</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
@@ -649,7 +653,7 @@
         <f>SLN(B4,C4,D4)*9/12</f>
         <v>850000</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <f>SLN(B4,C4,D4)</f>
         <v>1133333.3333333333</v>
       </c>
@@ -684,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -697,13 +701,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7"/>
@@ -906,13 +910,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
@@ -985,13 +989,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
